--- a/Factures_Excel/530 - Succession Marc-André Desnoyers.xlsx
+++ b/Factures_Excel/530 - Succession Marc-André Desnoyers.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Admin-GC\GC Fiscalité Plus Inc\Facturation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6791599-33BB-415D-842A-E2D1C62513A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C02683A-7B63-498A-A8BF-5404FA50C6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="29-03-24" sheetId="4" r:id="rId1"/>
     <sheet name="29-07-24" sheetId="6" r:id="rId2"/>
     <sheet name="Activités" sheetId="5" r:id="rId3"/>
+    <sheet name="2025-03-02 - 25-24813" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Liste_Activités">Activités!$C$5:$C$47</definedName>
     <definedName name="Print_Area" localSheetId="0">'29-03-24'!$A$1:$F$89</definedName>
     <definedName name="Print_Area" localSheetId="1">'29-07-24'!$A$1:$F$89</definedName>
     <definedName name="Print_Area" localSheetId="2">Activités!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'2025-03-02 - 25-24813'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'29-03-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'29-07-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Activités!$A$1:$D$48</definedName>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -266,21 +268,50 @@
   </si>
   <si>
     <t xml:space="preserve"> - Lecture, analyse et rédaction de divers courriels avec votre comptable;</t>
+  </si>
+  <si>
+    <t>Le 2 MARS 2025</t>
+  </si>
+  <si>
+    <t>Arianne Collin-Gascon</t>
+  </si>
+  <si>
+    <t>525 boul. de la Grande-Allée</t>
+  </si>
+  <si>
+    <t>Boisbriand, Québec, J7H 1M8</t>
+  </si>
+  <si>
+    <t>25-24813</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse et réflexions concernant les étapes restantes à mettre en place ;</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail avec votre comptable à la préparation/révision des états financiers et déclarations de revenus;</t>
+  </si>
+  <si>
+    <t>Frais d'expert en taxes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;_);\(#,##0.00\ &quot;$&quot;\)"/>
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_)\ _$_ ;_ * \(#,##0.00\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;$&quot;_-;[Red]#,##0.00\ &quot;$&quot;\-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$$-C0C]_);\(#,##0.00\ [$$-C0C]\)"/>
     <numFmt numFmtId="167" formatCode="0.000%"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="169" formatCode="##0.00"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -424,6 +455,51 @@
       <b/>
       <u/>
       <sz val="11"/>
+      <color rgb="FF625850"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF625850"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF625850"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color rgb="FF625850"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -651,13 +727,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -756,6 +834,21 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -768,36 +861,195 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="7" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
+    <cellStyle name="Milliers 2" xfId="5" xr:uid="{E80A31F4-12D0-4C76-8038-16BCDD238CE5}"/>
     <cellStyle name="Monétaire" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{05AE08AC-AFEC-4B9B-A8E8-E482E13645AE}"/>
+    <cellStyle name="Pourcentage" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -987,6 +1239,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4097" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF78D511-7738-E851-97F8-B02D70EB14D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1286,7 +1604,780 @@
   </sheetPr>
   <dimension ref="A12:F92"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A29" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="46"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="49"/>
+      <c r="F65" s="46"/>
+    </row>
+    <row r="66" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="46"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="51">
+        <v>15.75</v>
+      </c>
+      <c r="D66" s="52">
+        <v>350</v>
+      </c>
+      <c r="E66" s="49"/>
+      <c r="F66" s="46"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="21"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="21"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="21"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="29">
+        <f>D66*C66</f>
+        <v>5512.5</v>
+      </c>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="30">
+        <v>0</v>
+      </c>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="30">
+        <v>0</v>
+      </c>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="29">
+        <f>SUM(E69:E71)</f>
+        <v>5512.5</v>
+      </c>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="D73" s="26"/>
+      <c r="E73" s="35">
+        <f>ROUND(E72*C73,2)</f>
+        <v>275.63</v>
+      </c>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="42">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D74" s="26"/>
+      <c r="E74" s="43">
+        <f>ROUND(E72*C74,2)</f>
+        <v>549.87</v>
+      </c>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="33">
+        <f>SUM(E72:E74)</f>
+        <v>6338</v>
+      </c>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="58"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="63"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="36">
+        <v>0</v>
+      </c>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39">
+        <f>E76-E78</f>
+        <v>6338</v>
+      </c>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="64"/>
+      <c r="C85" s="64"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="64"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="54"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="54"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="59"/>
+      <c r="C90" s="60"/>
+      <c r="D90" s="60"/>
+    </row>
+    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
+  </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C95D14-FDC9-4957-85A0-0139A84149DB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F92"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B67" sqref="B67:D67"/>
     </sheetView>
   </sheetViews>
@@ -1340,7 +2431,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="25" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -1409,7 +2500,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F28" s="21"/>
     </row>
@@ -1422,14 +2513,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -1450,281 +2541,261 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
+      <c r="B35" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
+      <c r="B37" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -1744,7 +2815,7 @@
       <c r="A66" s="46"/>
       <c r="B66" s="47"/>
       <c r="C66" s="51">
-        <v>15.75</v>
+        <v>1.75</v>
       </c>
       <c r="D66" s="52">
         <v>350</v>
@@ -1754,17 +2825,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -1777,7 +2848,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="29">
         <f>D66*C66</f>
-        <v>5512.5</v>
+        <v>612.5</v>
       </c>
       <c r="F69" s="21"/>
     </row>
@@ -1814,7 +2885,7 @@
       <c r="D72" s="26"/>
       <c r="E72" s="29">
         <f>SUM(E69:E71)</f>
-        <v>5512.5</v>
+        <v>612.5</v>
       </c>
       <c r="F72" s="21"/>
     </row>
@@ -1829,7 +2900,7 @@
       <c r="D73" s="26"/>
       <c r="E73" s="35">
         <f>ROUND(E72*C73,2)</f>
-        <v>275.63</v>
+        <v>30.63</v>
       </c>
       <c r="F73" s="21"/>
     </row>
@@ -1844,7 +2915,7 @@
       <c r="D74" s="26"/>
       <c r="E74" s="43">
         <f>ROUND(E72*C74,2)</f>
-        <v>549.87</v>
+        <v>61.1</v>
       </c>
       <c r="F74" s="21"/>
     </row>
@@ -1865,25 +2936,25 @@
       <c r="D76" s="26"/>
       <c r="E76" s="33">
         <f>SUM(E72:E74)</f>
-        <v>6338</v>
+        <v>704.23</v>
       </c>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="58"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="59" t="s">
+      <c r="B78" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="59"/>
-      <c r="D78" s="59"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="63"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -1891,9 +2962,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -1906,7 +2977,7 @@
       <c r="D80" s="38"/>
       <c r="E80" s="39">
         <f>E76-E78</f>
-        <v>6338</v>
+        <v>704.23</v>
       </c>
       <c r="F80" s="21"/>
     </row>
@@ -1928,31 +2999,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="64" t="s">
+      <c r="A84" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="64"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="60" t="s">
+      <c r="A85" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="60"/>
-      <c r="C85" s="60"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="60"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="64"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="64"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -1964,26 +3035,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="63" t="s">
+      <c r="A88" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="63"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="54"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="54"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="60"/>
+      <c r="D90" s="60"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -1993,37 +3064,10 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B87:E87"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
@@ -2032,720 +3076,30 @@
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="A85:F85"/>
-  </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C95D14-FDC9-4957-85A0-0139A84149DB}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F92"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:D67"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="21"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="21"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="21"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="21"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="21"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="46"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="49"/>
-      <c r="F65" s="46"/>
-    </row>
-    <row r="66" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="46"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="51">
-        <v>1.75</v>
-      </c>
-      <c r="D66" s="52">
-        <v>350</v>
-      </c>
-      <c r="E66" s="49"/>
-      <c r="F66" s="46"/>
-    </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="21"/>
-    </row>
-    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="21"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="29">
-        <f>D66*C66</f>
-        <v>612.5</v>
-      </c>
-      <c r="F69" s="21"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="30">
-        <v>0</v>
-      </c>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="30">
-        <v>0</v>
-      </c>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="29">
-        <f>SUM(E69:E71)</f>
-        <v>612.5</v>
-      </c>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="35">
-        <f>ROUND(E72*C73,2)</f>
-        <v>30.63</v>
-      </c>
-      <c r="F73" s="21"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="42">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="43">
-        <f>ROUND(E72*C74,2)</f>
-        <v>61.1</v>
-      </c>
-      <c r="F74" s="21"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="33">
-        <f>SUM(E72:E74)</f>
-        <v>704.23</v>
-      </c>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="21"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="59"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="36">
-        <v>0</v>
-      </c>
-      <c r="F78" s="21"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="21"/>
-    </row>
-    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39">
-        <f>E76-E78</f>
-        <v>704.23</v>
-      </c>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="21"/>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="B84" s="64"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="B85" s="60"/>
-      <c r="C85" s="60"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="60"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="21"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="63"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
-    </row>
-    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="54"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
-    </row>
-    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="44">
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
     <mergeCell ref="A88:F88"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B78:D78"/>
@@ -2754,42 +3108,6 @@
     <mergeCell ref="A84:F84"/>
     <mergeCell ref="A85:F85"/>
     <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{A33659AF-38BB-4B10-94A9-FC05A9D4E146}">
@@ -2798,7 +3116,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3196,4 +3514,827 @@
   <pageSetup scale="74" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1181E203-739C-4F36-B034-7E07C2C980C4}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="66"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="66"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="66"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="66"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="66"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="66"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="66"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="66"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="66"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="70"/>
+      <c r="B21" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="70"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="70"/>
+      <c r="B23" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="70"/>
+      <c r="B24" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="70"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="70"/>
+      <c r="B25" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="70"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="70"/>
+      <c r="B26" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="70"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="71"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="70"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="76"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="77"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="81"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="82"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="83"/>
+      <c r="B32" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="85"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="83"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="83"/>
+      <c r="B34" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="89"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="83"/>
+      <c r="B35" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="91"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="83"/>
+      <c r="B36" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="89"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="83"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="83"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="83"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="83"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="83"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="83"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="83"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="83"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="83"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="83"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="83"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="83"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="83"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="83"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="83"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="83"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="90"/>
+      <c r="F52" s="90"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="83"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="83"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="83"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="83"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="90"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="83"/>
+      <c r="B57" s="88"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="83"/>
+      <c r="B58" s="88"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="83"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="83"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="90"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="90"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="83"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="83"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="83"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="95"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="83"/>
+      <c r="B64" s="93"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="87"/>
+      <c r="E64" s="90"/>
+      <c r="F64" s="90"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="83"/>
+      <c r="B65" s="88"/>
+      <c r="C65" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="90"/>
+      <c r="F65" s="90"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="83"/>
+      <c r="B66" s="88"/>
+      <c r="C66" s="99">
+        <v>3</v>
+      </c>
+      <c r="D66" s="100">
+        <v>400</v>
+      </c>
+      <c r="E66" s="101"/>
+      <c r="F66" s="101"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="83"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="100"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="83"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="102"/>
+      <c r="D68" s="102"/>
+      <c r="E68" s="102"/>
+      <c r="F68" s="83"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="70"/>
+      <c r="B69" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="103"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="104">
+        <v>1200</v>
+      </c>
+      <c r="F69" s="104"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="70"/>
+      <c r="B70" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="106"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="107">
+        <v>0</v>
+      </c>
+      <c r="F70" s="107"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="70"/>
+      <c r="B71" s="108" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="106"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="107">
+        <v>0</v>
+      </c>
+      <c r="F71" s="107"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="70"/>
+      <c r="B72" s="108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="106"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="107">
+        <v>0</v>
+      </c>
+      <c r="F72" s="107"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="70"/>
+      <c r="B73" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="103"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="109">
+        <v>1200</v>
+      </c>
+      <c r="F73" s="109"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="70"/>
+      <c r="B74" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="110">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="106"/>
+      <c r="E74" s="111">
+        <v>60</v>
+      </c>
+      <c r="F74" s="111"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="70"/>
+      <c r="B75" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="113">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="106"/>
+      <c r="E75" s="114">
+        <v>119.7</v>
+      </c>
+      <c r="F75" s="111"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="70"/>
+      <c r="B76" s="84"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="73"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="70"/>
+      <c r="B77" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="103"/>
+      <c r="D77" s="116"/>
+      <c r="E77" s="117">
+        <v>1379.7</v>
+      </c>
+      <c r="F77" s="118"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="70"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="119"/>
+      <c r="F78" s="112"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="70"/>
+      <c r="B79" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="112"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="73">
+        <v>0</v>
+      </c>
+      <c r="F79" s="73"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="70"/>
+      <c r="B80" s="103"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="119"/>
+      <c r="F80" s="112"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="70"/>
+      <c r="B81" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="121"/>
+      <c r="D81" s="122"/>
+      <c r="E81" s="123">
+        <v>1379.7</v>
+      </c>
+      <c r="F81" s="73"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="70"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="73"/>
+      <c r="F82" s="73"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="124"/>
+      <c r="B83" s="125"/>
+      <c r="C83" s="126"/>
+      <c r="D83" s="126"/>
+      <c r="E83" s="126"/>
+      <c r="F83" s="127"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="128"/>
+      <c r="C84" s="128"/>
+      <c r="D84" s="128"/>
+      <c r="E84" s="128"/>
+      <c r="F84" s="84"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="129" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="129"/>
+      <c r="C85" s="129"/>
+      <c r="D85" s="129"/>
+      <c r="E85" s="129"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="130"/>
+      <c r="B86" s="130"/>
+      <c r="C86" s="130"/>
+      <c r="D86" s="130"/>
+      <c r="E86" s="130"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="130"/>
+      <c r="B87" s="130"/>
+      <c r="C87" s="130"/>
+      <c r="D87" s="130"/>
+      <c r="E87" s="130"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="131"/>
+      <c r="C88" s="131"/>
+      <c r="D88" s="131"/>
+      <c r="E88" s="131"/>
+      <c r="F88" s="131"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A88:F88"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Factures_Excel/530 - Succession Marc-André Desnoyers.xlsx
+++ b/Factures_Excel/530 - Succession Marc-André Desnoyers.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C02683A-7B63-498A-A8BF-5404FA50C6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0040ED67-A21B-4B33-87EC-CE3D82361999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="29-03-24" sheetId="4" r:id="rId1"/>
     <sheet name="29-07-24" sheetId="6" r:id="rId2"/>
     <sheet name="Activités" sheetId="5" r:id="rId3"/>
     <sheet name="2025-03-02 - 25-24813" sheetId="8" r:id="rId4"/>
+    <sheet name="2025-03-31 - 25-24872" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Liste_Activités">Activités!$C$5:$C$47</definedName>
@@ -24,6 +25,7 @@
     <definedName name="Print_Area" localSheetId="1">'29-07-24'!$A$1:$F$89</definedName>
     <definedName name="Print_Area" localSheetId="2">Activités!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2025-03-02 - 25-24813'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2025-03-31 - 25-24872'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'29-03-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'29-07-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Activités!$A$1:$D$48</definedName>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="89">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -295,6 +297,24 @@
   </si>
   <si>
     <t>Frais d'expert en taxes</t>
+  </si>
+  <si>
+    <t>Le 31 MARS 2025</t>
+  </si>
+  <si>
+    <t>Succession Marc-André Desnoyer</t>
+  </si>
+  <si>
+    <t>25-24872</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Révision des feuillets préparés par votre comptable ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse et réflexions nécessaires pour produire la déclaration de revenus ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation de la déclaration de revenus de la succession ;</t>
   </si>
 </sst>
 </file>
@@ -505,7 +525,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,6 +547,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +761,7 @@
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -834,42 +860,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -909,9 +899,6 @@
     </xf>
     <xf numFmtId="168" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1008,39 +995,81 @@
     <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="28" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="28" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1267,6 +1296,72 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF78D511-7738-E851-97F8-B02D70EB14D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4097" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBB1F83-A345-A6DA-42C2-2453557A699E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1740,14 +1835,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -1768,281 +1863,281 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="56" t="s">
+      <c r="B51" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="56" t="s">
+      <c r="B53" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="56" t="s">
+      <c r="B55" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="116"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="116"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -2072,17 +2167,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
+      <c r="B67" s="116"/>
+      <c r="C67" s="116"/>
+      <c r="D67" s="116"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
+      <c r="B68" s="116"/>
+      <c r="C68" s="116"/>
+      <c r="D68" s="116"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -2189,19 +2284,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="58"/>
+      <c r="B77" s="120"/>
+      <c r="C77" s="120"/>
+      <c r="D77" s="120"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="63" t="s">
+      <c r="B78" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
+      <c r="C78" s="117"/>
+      <c r="D78" s="117"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -2209,9 +2304,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="58"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
+      <c r="B79" s="120"/>
+      <c r="C79" s="120"/>
+      <c r="D79" s="120"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -2246,31 +2341,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="61"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
+      <c r="B83" s="114"/>
+      <c r="C83" s="114"/>
+      <c r="D83" s="114"/>
+      <c r="E83" s="114"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="55" t="s">
+      <c r="A84" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
+      <c r="B84" s="122"/>
+      <c r="C84" s="122"/>
+      <c r="D84" s="122"/>
+      <c r="E84" s="122"/>
+      <c r="F84" s="122"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="64" t="s">
+      <c r="A85" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
+      <c r="B85" s="118"/>
+      <c r="C85" s="118"/>
+      <c r="D85" s="118"/>
+      <c r="E85" s="118"/>
+      <c r="F85" s="118"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -2282,26 +2377,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="62"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
+      <c r="B87" s="115"/>
+      <c r="C87" s="115"/>
+      <c r="D87" s="115"/>
+      <c r="E87" s="115"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="54" t="s">
+      <c r="A88" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="54"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="54"/>
+      <c r="B88" s="121"/>
+      <c r="C88" s="121"/>
+      <c r="D88" s="121"/>
+      <c r="E88" s="121"/>
+      <c r="F88" s="121"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="59"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="60"/>
+      <c r="B90" s="112"/>
+      <c r="C90" s="113"/>
+      <c r="D90" s="113"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -2311,6 +2406,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -2327,34 +2450,6 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -2513,14 +2608,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -2541,261 +2636,261 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="116"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="116"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -2825,17 +2920,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
+      <c r="B67" s="116"/>
+      <c r="C67" s="116"/>
+      <c r="D67" s="116"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
+      <c r="B68" s="116"/>
+      <c r="C68" s="116"/>
+      <c r="D68" s="116"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -2942,19 +3037,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="58"/>
+      <c r="B77" s="120"/>
+      <c r="C77" s="120"/>
+      <c r="D77" s="120"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="63" t="s">
+      <c r="B78" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
+      <c r="C78" s="117"/>
+      <c r="D78" s="117"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -2962,9 +3057,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="58"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
+      <c r="B79" s="120"/>
+      <c r="C79" s="120"/>
+      <c r="D79" s="120"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -2999,31 +3094,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="61"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
+      <c r="B83" s="114"/>
+      <c r="C83" s="114"/>
+      <c r="D83" s="114"/>
+      <c r="E83" s="114"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="55" t="s">
+      <c r="A84" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
+      <c r="B84" s="122"/>
+      <c r="C84" s="122"/>
+      <c r="D84" s="122"/>
+      <c r="E84" s="122"/>
+      <c r="F84" s="122"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="64" t="s">
+      <c r="A85" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
+      <c r="B85" s="118"/>
+      <c r="C85" s="118"/>
+      <c r="D85" s="118"/>
+      <c r="E85" s="118"/>
+      <c r="F85" s="118"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -3035,26 +3130,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="62"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
+      <c r="B87" s="115"/>
+      <c r="C87" s="115"/>
+      <c r="D87" s="115"/>
+      <c r="E87" s="115"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="54" t="s">
+      <c r="A88" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="54"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="54"/>
+      <c r="B88" s="121"/>
+      <c r="C88" s="121"/>
+      <c r="D88" s="121"/>
+      <c r="E88" s="121"/>
+      <c r="F88" s="121"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="59"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="60"/>
+      <c r="B90" s="112"/>
+      <c r="C90" s="113"/>
+      <c r="D90" s="113"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3064,6 +3159,38 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B33:D33"/>
@@ -3076,38 +3203,6 @@
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{A33659AF-38BB-4B10-94A9-FC05A9D4E146}">
@@ -3143,10 +3238,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65"/>
+      <c r="C1" s="123"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3518,6 +3613,829 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1181E203-739C-4F36-B034-7E07C2C980C4}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="58"/>
+      <c r="B21" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="58"/>
+      <c r="B23" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="58"/>
+      <c r="B24" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="58"/>
+      <c r="B25" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="58"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="58"/>
+      <c r="B26" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="58"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="64"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="68"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="70"/>
+      <c r="B32" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="70"/>
+      <c r="B34" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="70"/>
+      <c r="B35" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="78"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="70"/>
+      <c r="B36" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="76"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="70"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="70"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="70"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="70"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="70"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="70"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="70"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="70"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="70"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="70"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="70"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="70"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="70"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="70"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="70"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="70"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="70"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="70"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="70"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="70"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="70"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="70"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="70"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="70"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="70"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="70"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="70"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="70"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="70"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="70"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="86">
+        <v>3</v>
+      </c>
+      <c r="D66" s="87">
+        <v>400</v>
+      </c>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="70"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="70"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="70"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="58"/>
+      <c r="B69" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="90"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="91">
+        <v>1200</v>
+      </c>
+      <c r="F69" s="91"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="58"/>
+      <c r="B70" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="93"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="94">
+        <v>0</v>
+      </c>
+      <c r="F70" s="94"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="58"/>
+      <c r="B71" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="93"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="94">
+        <v>0</v>
+      </c>
+      <c r="F71" s="94"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="58"/>
+      <c r="B72" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="93"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="94">
+        <v>0</v>
+      </c>
+      <c r="F72" s="94"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="58"/>
+      <c r="B73" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="90"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="96">
+        <v>1200</v>
+      </c>
+      <c r="F73" s="96"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="58"/>
+      <c r="B74" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="97">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="93"/>
+      <c r="E74" s="98">
+        <v>60</v>
+      </c>
+      <c r="F74" s="98"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="58"/>
+      <c r="B75" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="100">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="93"/>
+      <c r="E75" s="101">
+        <v>119.7</v>
+      </c>
+      <c r="F75" s="98"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="58"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="58"/>
+      <c r="B77" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="90"/>
+      <c r="D77" s="103"/>
+      <c r="E77" s="104">
+        <v>1379.7</v>
+      </c>
+      <c r="F77" s="105"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="58"/>
+      <c r="B78" s="99"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="99"/>
+      <c r="E78" s="106"/>
+      <c r="F78" s="99"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="58"/>
+      <c r="B79" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="99"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="58"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="106"/>
+      <c r="F80" s="99"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="58"/>
+      <c r="B81" s="125" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="126"/>
+      <c r="D81" s="107"/>
+      <c r="E81" s="108">
+        <v>1379.7</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="58"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="109"/>
+      <c r="B83" s="127"/>
+      <c r="C83" s="128"/>
+      <c r="D83" s="128"/>
+      <c r="E83" s="128"/>
+      <c r="F83" s="110"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="129" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="129"/>
+      <c r="C84" s="129"/>
+      <c r="D84" s="129"/>
+      <c r="E84" s="129"/>
+      <c r="F84" s="71"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="130"/>
+      <c r="C85" s="130"/>
+      <c r="D85" s="130"/>
+      <c r="E85" s="130"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="111"/>
+      <c r="B86" s="111"/>
+      <c r="C86" s="111"/>
+      <c r="D86" s="111"/>
+      <c r="E86" s="111"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="111"/>
+      <c r="B87" s="111"/>
+      <c r="C87" s="111"/>
+      <c r="D87" s="111"/>
+      <c r="E87" s="111"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="131"/>
+      <c r="C88" s="131"/>
+      <c r="D88" s="131"/>
+      <c r="E88" s="131"/>
+      <c r="F88" s="131"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD32CB2-2105-4E99-95B3-66DBC97B036A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3538,779 +4456,783 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="66"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="66"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="66"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="66"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="66"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="66"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="66"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="70"/>
-      <c r="B21" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="70"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="70"/>
-      <c r="B23" s="71" t="s">
+      <c r="A23" s="58"/>
+      <c r="B23" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="70"/>
-      <c r="B24" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70" t="s">
+      <c r="A25" s="58"/>
+      <c r="B25" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="70"/>
-      <c r="B26" s="70" t="s">
+      <c r="A26" s="58"/>
+      <c r="B26" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="71"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
     </row>
     <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="75" t="s">
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="76"/>
+      <c r="E28" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="64"/>
     </row>
     <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="81"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="68"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="82"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="83"/>
-      <c r="B32" s="84" t="s">
+      <c r="A32" s="70"/>
+      <c r="B32" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="83"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="83"/>
-      <c r="B34" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="83"/>
-      <c r="B35" s="88" t="s">
+      <c r="A35" s="70"/>
+      <c r="B35" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="83"/>
-      <c r="B36" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="89"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="76"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="83"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="76"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="83"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="83"/>
-      <c r="B39" s="88"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
+      <c r="A39" s="70"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="83"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
+      <c r="A40" s="70"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="83"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="83"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
+      <c r="A42" s="70"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="83"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
+      <c r="A43" s="70"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="83"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="83"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="83"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="83"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
+      <c r="A47" s="70"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="83"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
+      <c r="A48" s="70"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="83"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="83"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="83"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="83"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="83"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="83"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
+      <c r="A54" s="70"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="83"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
+      <c r="A55" s="70"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="83"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="83"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="89"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="83"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="83"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
+      <c r="A59" s="70"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="83"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="90"/>
-      <c r="E60" s="90"/>
-      <c r="F60" s="90"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="83"/>
-      <c r="B61" s="88"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="90"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
+      <c r="A61" s="70"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="83"/>
-      <c r="B62" s="88"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
+      <c r="A62" s="70"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="83"/>
-      <c r="B63" s="93"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="95"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
+      <c r="A63" s="70"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="83"/>
-      <c r="B64" s="93"/>
-      <c r="C64" s="96"/>
-      <c r="D64" s="87"/>
-      <c r="E64" s="90"/>
-      <c r="F64" s="90"/>
+      <c r="A64" s="70"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="83"/>
-      <c r="B65" s="88"/>
-      <c r="C65" s="97" t="s">
+      <c r="A65" s="70"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="98" t="s">
+      <c r="D65" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="E65" s="90"/>
-      <c r="F65" s="90"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="83"/>
-      <c r="B66" s="88"/>
-      <c r="C66" s="99">
-        <v>3</v>
-      </c>
-      <c r="D66" s="100">
-        <v>400</v>
-      </c>
-      <c r="E66" s="101"/>
-      <c r="F66" s="101"/>
+      <c r="A66" s="70"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="86">
+        <v>4</v>
+      </c>
+      <c r="D66" s="87">
+        <v>385</v>
+      </c>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="83"/>
-      <c r="B67" s="93"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="100"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
+      <c r="A67" s="70"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="83"/>
-      <c r="B68" s="93"/>
-      <c r="C68" s="102"/>
-      <c r="D68" s="102"/>
-      <c r="E68" s="102"/>
-      <c r="F68" s="83"/>
+      <c r="A68" s="70"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="70"/>
     </row>
     <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="70"/>
-      <c r="B69" s="103" t="s">
+      <c r="A69" s="58"/>
+      <c r="B69" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="103"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="104">
-        <v>1200</v>
-      </c>
-      <c r="F69" s="104"/>
+      <c r="C69" s="90"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="91">
+        <v>1540</v>
+      </c>
+      <c r="F69" s="91"/>
     </row>
     <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="70"/>
-      <c r="B70" s="105" t="s">
+      <c r="A70" s="58"/>
+      <c r="B70" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="106"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="107">
+      <c r="C70" s="93"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="94">
         <v>0</v>
       </c>
-      <c r="F70" s="107"/>
+      <c r="F70" s="94"/>
     </row>
     <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="70"/>
-      <c r="B71" s="108" t="s">
+      <c r="A71" s="58"/>
+      <c r="B71" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="106"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="107">
+      <c r="C71" s="93"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="94">
         <v>0</v>
       </c>
-      <c r="F71" s="107"/>
+      <c r="F71" s="94"/>
     </row>
     <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="70"/>
-      <c r="B72" s="108" t="s">
+      <c r="A72" s="58"/>
+      <c r="B72" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="106"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="107">
+      <c r="C72" s="93"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="94">
         <v>0</v>
       </c>
-      <c r="F72" s="107"/>
+      <c r="F72" s="94"/>
     </row>
     <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="70"/>
-      <c r="B73" s="71" t="s">
+      <c r="A73" s="58"/>
+      <c r="B73" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="103"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="109">
-        <v>1200</v>
-      </c>
-      <c r="F73" s="109"/>
+      <c r="C73" s="90"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="96">
+        <v>1540</v>
+      </c>
+      <c r="F73" s="96"/>
     </row>
     <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="70"/>
-      <c r="B74" s="106" t="s">
+      <c r="A74" s="58"/>
+      <c r="B74" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="110">
+      <c r="C74" s="97">
         <v>0.05</v>
       </c>
-      <c r="D74" s="106"/>
-      <c r="E74" s="111">
-        <v>60</v>
-      </c>
-      <c r="F74" s="111"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="98">
+        <v>77</v>
+      </c>
+      <c r="F74" s="98"/>
     </row>
     <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="70"/>
-      <c r="B75" s="112" t="s">
+      <c r="A75" s="58"/>
+      <c r="B75" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="C75" s="113">
+      <c r="C75" s="100">
         <v>9.9750000000000005E-2</v>
       </c>
-      <c r="D75" s="106"/>
-      <c r="E75" s="114">
-        <v>119.7</v>
-      </c>
-      <c r="F75" s="111"/>
+      <c r="D75" s="93"/>
+      <c r="E75" s="101">
+        <v>153.62</v>
+      </c>
+      <c r="F75" s="98"/>
     </row>
     <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="70"/>
-      <c r="B76" s="84"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
+      <c r="A76" s="58"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
     </row>
     <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="70"/>
-      <c r="B77" s="115" t="s">
+      <c r="A77" s="58"/>
+      <c r="B77" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="103"/>
-      <c r="D77" s="116"/>
-      <c r="E77" s="117">
-        <v>1379.7</v>
-      </c>
-      <c r="F77" s="118"/>
+      <c r="C77" s="90"/>
+      <c r="D77" s="103"/>
+      <c r="E77" s="104">
+        <v>1770.62</v>
+      </c>
+      <c r="F77" s="105"/>
     </row>
     <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="70"/>
-      <c r="B78" s="112"/>
-      <c r="C78" s="112"/>
-      <c r="D78" s="112"/>
-      <c r="E78" s="119"/>
-      <c r="F78" s="112"/>
+      <c r="A78" s="58"/>
+      <c r="B78" s="99"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="99"/>
+      <c r="E78" s="106"/>
+      <c r="F78" s="99"/>
     </row>
     <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="70"/>
-      <c r="B79" s="84" t="s">
+      <c r="A79" s="58"/>
+      <c r="B79" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C79" s="112"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="73">
+      <c r="C79" s="99"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
         <v>0</v>
       </c>
-      <c r="F79" s="73"/>
+      <c r="F79" s="61"/>
     </row>
     <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="70"/>
-      <c r="B80" s="103"/>
-      <c r="C80" s="112"/>
-      <c r="D80" s="112"/>
-      <c r="E80" s="119"/>
-      <c r="F80" s="112"/>
+      <c r="A80" s="58"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="106"/>
+      <c r="F80" s="99"/>
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="70"/>
-      <c r="B81" s="120" t="s">
+      <c r="A81" s="58"/>
+      <c r="B81" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="121"/>
-      <c r="D81" s="122"/>
-      <c r="E81" s="123">
-        <v>1379.7</v>
-      </c>
-      <c r="F81" s="73"/>
+      <c r="C81" s="126"/>
+      <c r="D81" s="107"/>
+      <c r="E81" s="108">
+        <v>1770.62</v>
+      </c>
+      <c r="F81" s="61"/>
     </row>
     <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="70"/>
-      <c r="B82" s="70"/>
-      <c r="C82" s="70"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="73"/>
-      <c r="F82" s="73"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="124"/>
-      <c r="B83" s="125"/>
-      <c r="C83" s="126"/>
-      <c r="D83" s="126"/>
-      <c r="E83" s="126"/>
-      <c r="F83" s="127"/>
+      <c r="A83" s="109"/>
+      <c r="B83" s="127"/>
+      <c r="C83" s="128"/>
+      <c r="D83" s="128"/>
+      <c r="E83" s="128"/>
+      <c r="F83" s="110"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="128" t="s">
+      <c r="A84" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="128"/>
-      <c r="C84" s="128"/>
-      <c r="D84" s="128"/>
-      <c r="E84" s="128"/>
-      <c r="F84" s="84"/>
+      <c r="B84" s="129"/>
+      <c r="C84" s="129"/>
+      <c r="D84" s="129"/>
+      <c r="E84" s="129"/>
+      <c r="F84" s="71"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="129" t="s">
+      <c r="A85" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="129"/>
-      <c r="C85" s="129"/>
-      <c r="D85" s="129"/>
-      <c r="E85" s="129"/>
+      <c r="B85" s="130"/>
+      <c r="C85" s="130"/>
+      <c r="D85" s="130"/>
+      <c r="E85" s="130"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="130"/>
-      <c r="B86" s="130"/>
-      <c r="C86" s="130"/>
-      <c r="D86" s="130"/>
-      <c r="E86" s="130"/>
+      <c r="A86" s="111"/>
+      <c r="B86" s="111"/>
+      <c r="C86" s="111"/>
+      <c r="D86" s="111"/>
+      <c r="E86" s="111"/>
       <c r="F86" s="46"/>
     </row>
     <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="130"/>
-      <c r="B87" s="130"/>
-      <c r="C87" s="130"/>
-      <c r="D87" s="130"/>
-      <c r="E87" s="130"/>
+      <c r="A87" s="111"/>
+      <c r="B87" s="111"/>
+      <c r="C87" s="111"/>
+      <c r="D87" s="111"/>
+      <c r="E87" s="111"/>
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
